--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/StructureDefinition/no-domain-VitalSigns-Observation-bloodpressure</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/no-domain-VitalSigns-Observation-bloodpressure</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.5</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -481,7 +481,7 @@
     <t>confoundingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsConfoundingFactorExtension}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>headTiltAngle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsTiltExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsTiltExtension}
 </t>
   </si>
   <si>
@@ -511,7 +511,7 @@
     <t>sleepStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsSleepStatusExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsSleepStatusExtension}
 </t>
   </si>
   <si>
@@ -524,7 +524,7 @@
     <t>cuffSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsCuffSizeExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsCuffSizeExtension}
 </t>
   </si>
   <si>
@@ -537,7 +537,7 @@
     <t>bodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBloodpressureBodyPositionExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBloodpressureBodyPositionExtension}
 </t>
   </si>
   <si>
@@ -550,7 +550,7 @@
     <t>formulaMAPCalc</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBloodpressureMeanArterialFormulaExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBloodpressureMeanArterialFormulaExtension}
 </t>
   </si>
   <si>
@@ -563,7 +563,7 @@
     <t>formulaSystolicCalc</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBloodpressureSystolicFormulaExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBloodpressureSystolicFormulaExtension}
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
     <t>formulaDiastolicCalc</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsBloodpressureDiastolicFormulaExtension}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/no-domain/vitalsigns/StructureDefinition/NoDomainVitalSignsBloodpressureDiastolicFormulaExtension}
 </t>
   </si>
   <si>
@@ -1485,7 +1485,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsBloodpressureBodySiteValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsBloodpressureBodySiteValueSet</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1527,7 +1527,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsBloodPressureMeasurementMethodValueSet</t>
+    <t>http://hl7.no/fhir/no-domain/vitalsigns/ValueSet/NoDomainVitalSignsBloodPressureMeasurementMethodValueSet</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -2972,7 +2972,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.8359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="89.7578125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.4453125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-no-domain-VitalSigns-Observation-bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
